--- a/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4270E718-4BF4-5842-AC87-B2A96F185563}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317585A3-D361-FE45-AD11-D625F3DCE206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="9000" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>Gavilan trib</t>
+  </si>
+  <si>
+    <t>NEED TO FIND THIS FILE</t>
   </si>
 </sst>
 </file>
@@ -162,12 +165,18 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -182,7 +191,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -191,6 +200,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +518,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -555,7 +565,9 @@
       <c r="A6" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="8" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">

--- a/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{317585A3-D361-FE45-AD11-D625F3DCE206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F1B16-984F-3C4A-ACDE-E6CE5351CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>Date</t>
   </si>
@@ -62,9 +62,6 @@
     <t>k600_m/d</t>
   </si>
   <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>Dist</t>
   </si>
   <si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>NEED TO FIND THIS FILE</t>
+  </si>
+  <si>
+    <t>DOC mg/l</t>
+  </si>
+  <si>
+    <t>TDN mg/l</t>
   </si>
 </sst>
 </file>
@@ -518,7 +521,7 @@
   <dimension ref="A1:J26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -539,7 +542,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -566,12 +569,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>30</v>
@@ -579,7 +582,7 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="3"/>
     </row>
@@ -597,24 +600,35 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>8</v>
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>2.5840000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>9.5890000000000003E-2</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="C14" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="D14" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="7" t="s">
+      <c r="E14" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -623,7 +637,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
@@ -637,7 +651,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -649,7 +663,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -661,7 +675,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -672,30 +686,30 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D20" s="3"/>
       <c r="E20" s="4"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="5">
         <v>52271</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E21" s="5">
         <v>28240</v>
@@ -703,17 +717,17 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4F1B16-984F-3C4A-ACDE-E6CE5351CD58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B6716-7EF2-EC4C-B484-57A3EE193E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="6500" yWindow="1640" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -71,12 +71,6 @@
     <t>x0</t>
   </si>
   <si>
-    <t>x25</t>
-  </si>
-  <si>
-    <t>x50</t>
-  </si>
-  <si>
     <t>CO2_air</t>
   </si>
   <si>
@@ -95,15 +89,9 @@
     <t>Q(handheld)_l/s</t>
   </si>
   <si>
-    <t>Q(salt)_l/s</t>
-  </si>
-  <si>
     <t>Methane_nu</t>
   </si>
   <si>
-    <t>Average k600 @xn10</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -119,20 +107,62 @@
     <t>Gavilan trib</t>
   </si>
   <si>
-    <t>NEED TO FIND THIS FILE</t>
-  </si>
-  <si>
     <t>DOC mg/l</t>
   </si>
   <si>
     <t>TDN mg/l</t>
+  </si>
+  <si>
+    <t>x30</t>
+  </si>
+  <si>
+    <t>x15</t>
+  </si>
+  <si>
+    <t>Q(salt)_l/s (1)</t>
+  </si>
+  <si>
+    <t>Q(salt) peak (1)</t>
+  </si>
+  <si>
+    <t>Q(salt) peak (2)</t>
+  </si>
+  <si>
+    <t>Q(salt)_l/s (2)</t>
+  </si>
+  <si>
+    <t>Background data @ -10m</t>
+  </si>
+  <si>
+    <t>Ave flux um/m2</t>
+  </si>
+  <si>
+    <t>Ave Temp c (water)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (air)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (water)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (air)</t>
+  </si>
+  <si>
+    <t>Ave k600 m/d</t>
+  </si>
+  <si>
+    <t>Ave k m/d</t>
+  </si>
+  <si>
+    <t>%diff in CO2 ppm during injection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -167,6 +197,19 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -194,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -203,6 +246,12 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="19" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="19" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -518,15 +567,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
@@ -542,13 +594,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
@@ -562,45 +615,53 @@
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" s="2">
+        <v>0.54166666666666663</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>27</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="3">
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>30</v>
+        <v>7.249657</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0.106575</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3">
+        <v>320.45409999999998</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3">
+        <v>457.05720000000002</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>2.5840000000000001</v>
@@ -608,7 +669,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12">
         <v>9.5890000000000003E-2</v>
@@ -625,10 +686,10 @@
         <v>10</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -637,12 +698,20 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+        <v>11</v>
+      </c>
+      <c r="B15" s="4">
+        <v>245.73740000000001</v>
+      </c>
+      <c r="C15" s="4">
+        <v>431.54379999999998</v>
+      </c>
+      <c r="D15" s="4">
+        <v>336.10879999999997</v>
+      </c>
+      <c r="E15" s="4">
+        <v>312.94159999999999</v>
+      </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
@@ -651,84 +720,258 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1153.7213999999999</v>
+      </c>
+      <c r="C16" s="4">
+        <v>1221.0423000000001</v>
+      </c>
+      <c r="D16" s="4">
+        <v>593.90729999999996</v>
+      </c>
+      <c r="E16" s="4">
+        <v>1019.5884</v>
+      </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1160.8979999999999</v>
+      </c>
+      <c r="C17" s="4">
+        <v>7894.9380000000001</v>
+      </c>
+      <c r="D17" s="4">
+        <v>3754.7649999999999</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2272.2269999999999</v>
+      </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="4">
+        <v>1167.3224</v>
+      </c>
+      <c r="D18" s="4">
+        <v>801.36410000000001</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1056.8925999999999</v>
+      </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>1.9649999999999992</v>
+      </c>
+      <c r="D19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19">
+        <v>2.3319999999999999</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>3.32</v>
+      </c>
+      <c r="D20" s="3">
+        <v>3.13</v>
+      </c>
+      <c r="E20" s="4">
+        <v>6.01</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="9">
+        <v>0.48359953703703701</v>
+      </c>
+      <c r="D21" s="10">
+        <v>0.48516203703703703</v>
+      </c>
+      <c r="E21" s="11">
+        <v>0.48684027777777777</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>2.9</v>
+      </c>
+      <c r="D22" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="E22" s="4">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C23" s="9">
+        <v>0.50013888888888891</v>
+      </c>
+      <c r="D23" s="10">
+        <v>0.50170138888888893</v>
+      </c>
+      <c r="E23" s="11">
+        <v>0.50341435185185179</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" t="s">
+        <v>12</v>
+      </c>
+      <c r="C24" s="5">
+        <v>52271</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" s="5">
+        <v>28240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28">
+        <f>(B17-B16)/AVERAGE(B16:B17)*100</f>
+        <v>0.62011058923985585</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B29" s="3">
+        <v>247.62039999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" s="3">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="3">
+        <v>15.96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="3">
+        <v>7.33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="3">
+        <v>1.0375000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34" s="3">
+        <v>25.35</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>36.090000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B36" s="14"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="5">
-        <v>52271</v>
-      </c>
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="5">
-        <v>28240</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
-        <v>23</v>
-      </c>
+      <c r="B37" s="8"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="12"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D91B6716-7EF2-EC4C-B484-57A3EE193E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63EC8F-550A-924D-A036-BD9CD499488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6500" yWindow="1640" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="14280" yWindow="5420" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>time_start</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>%diff in CO2 ppm during injection</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 15</t>
+  </si>
+  <si>
+    <t>slope btw 15 and 30</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 30</t>
   </si>
 </sst>
 </file>
@@ -237,7 +243,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -253,6 +259,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +575,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J39"/>
+  <dimension ref="A1:J41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -581,7 +589,7 @@
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -589,172 +597,146 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="16">
+        <v>1.0266666666666668</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="16">
+        <v>0.43333333333333335</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="16">
+        <v>0.73000000000000009</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.40972222222222227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>7.249657</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3">
+        <v>0.106575</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>320.45409999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="3">
+        <v>457.05720000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.40972222222222227</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="3">
-        <v>7.249657</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.106575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="3">
-        <v>320.45409999999998</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="B13">
+        <v>2.5840000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14">
+        <v>9.5890000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>457.05720000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11">
-        <v>2.5840000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="B16" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B12">
-        <v>9.5890000000000003E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="4">
-        <v>245.73740000000001</v>
-      </c>
-      <c r="C15" s="4">
-        <v>431.54379999999998</v>
-      </c>
-      <c r="D15" s="4">
-        <v>336.10879999999997</v>
-      </c>
-      <c r="E15" s="4">
-        <v>312.94159999999999</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1153.7213999999999</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1221.0423000000001</v>
-      </c>
-      <c r="D16" s="4">
-        <v>593.90729999999996</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1019.5884</v>
-      </c>
       <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
+      <c r="G16" s="6"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B17" s="4">
-        <v>1160.8979999999999</v>
+        <v>245.73740000000001</v>
       </c>
       <c r="C17" s="4">
-        <v>7894.9380000000001</v>
+        <v>431.54379999999998</v>
       </c>
       <c r="D17" s="4">
-        <v>3754.7649999999999</v>
+        <v>336.10879999999997</v>
       </c>
       <c r="E17" s="4">
-        <v>2272.2269999999999</v>
+        <v>312.94159999999999</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
@@ -764,214 +746,258 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="6" t="s">
         <v>12</v>
       </c>
+      <c r="B18" s="4">
+        <v>1153.7213999999999</v>
+      </c>
       <c r="C18" s="4">
-        <v>1167.3224</v>
+        <v>1221.0423000000001</v>
       </c>
       <c r="D18" s="4">
-        <v>801.36410000000001</v>
+        <v>593.90729999999996</v>
       </c>
       <c r="E18" s="4">
-        <v>1056.8925999999999</v>
+        <v>1019.5884</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>1.9649999999999992</v>
-      </c>
-      <c r="D19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19">
-        <v>2.3319999999999999</v>
+        <v>13</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1160.8979999999999</v>
+      </c>
+      <c r="C19" s="4">
+        <v>7894.9380000000001</v>
+      </c>
+      <c r="D19" s="4">
+        <v>3754.7649999999999</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2272.2269999999999</v>
       </c>
       <c r="F19" s="4"/>
       <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>3.32</v>
-      </c>
-      <c r="D20" s="3">
-        <v>3.13</v>
+        <v>11</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1167.3224</v>
+      </c>
+      <c r="D20" s="4">
+        <v>801.36410000000001</v>
       </c>
       <c r="E20" s="4">
-        <v>6.01</v>
-      </c>
+        <v>1056.8925999999999</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C21" s="9">
-        <v>0.48359953703703701</v>
-      </c>
-      <c r="D21" s="10">
-        <v>0.48516203703703703</v>
-      </c>
-      <c r="E21" s="11">
-        <v>0.48684027777777777</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C21">
+        <v>1.9649999999999992</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21">
+        <v>2.3319999999999999</v>
+      </c>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22">
-        <v>2.9</v>
+        <v>3.32</v>
       </c>
       <c r="D22" s="3">
-        <v>3.26</v>
+        <v>3.13</v>
       </c>
       <c r="E22" s="4">
-        <v>5.88</v>
+        <v>6.01</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="9">
-        <v>0.50013888888888891</v>
+        <v>0.48359953703703701</v>
       </c>
       <c r="D23" s="10">
-        <v>0.50170138888888893</v>
+        <v>0.48516203703703703</v>
       </c>
       <c r="E23" s="11">
-        <v>0.50341435185185179</v>
+        <v>0.48684027777777777</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" t="s">
-        <v>12</v>
-      </c>
-      <c r="C24" s="5">
+        <v>29</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24">
+        <v>2.9</v>
+      </c>
+      <c r="D24" s="3">
+        <v>3.26</v>
+      </c>
+      <c r="E24" s="4">
+        <v>5.88</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="9">
+        <v>0.50013888888888891</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.50170138888888893</v>
+      </c>
+      <c r="E25" s="11">
+        <v>0.50341435185185179</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" t="s">
+        <v>11</v>
+      </c>
+      <c r="C26" s="5">
         <v>52271</v>
       </c>
-      <c r="D24" t="s">
-        <v>12</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="5">
         <v>28240</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="12" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28">
-        <f>(B17-B16)/AVERAGE(B16:B17)*100</f>
-        <v>0.62011058923985585</v>
-      </c>
-    </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3">
-        <v>247.62039999999999</v>
+      <c r="A29" s="12" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30">
+        <f>(B19-B18)/AVERAGE(B18:B19)*100</f>
+        <v>0.62011058923985585</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B30" s="3">
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="12" t="s">
-        <v>34</v>
-      </c>
       <c r="B31" s="3">
-        <v>15.96</v>
+        <v>247.62039999999999</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B32" s="3">
-        <v>7.33</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B33" s="3">
-        <v>1.0375000000000001</v>
+        <v>15.96</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B34" s="3">
-        <v>25.35</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B35" s="3">
-        <v>36.090000000000003</v>
+        <v>1.0375000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="B36" s="14"/>
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>25.35</v>
+      </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="8"/>
+        <v>36</v>
+      </c>
+      <c r="B37" s="3">
+        <v>36.090000000000003</v>
+      </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="12"/>
+      <c r="A38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="14"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="13"/>
+      <c r="A39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B39" s="8"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="12"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-15.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D63EC8F-550A-924D-A036-BD9CD499488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0178FF2A-883C-4841-8CA8-5AE8B7F0D0ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14280" yWindow="5420" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="9000" yWindow="5040" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>slope btw 0 and 30</t>
+  </si>
+  <si>
+    <t>Ave Pressure kpa (air)</t>
   </si>
 </sst>
 </file>
@@ -243,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -259,8 +262,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -575,10 +576,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J41"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,26 +607,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="16">
+      <c r="B3">
         <v>1.0266666666666668</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="16">
+      <c r="B4">
         <v>0.43333333333333335</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5">
         <v>0.73000000000000009</v>
       </c>
     </row>
@@ -951,53 +952,61 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="12" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="B34" s="3">
-        <v>7.33</v>
+        <v>63.28</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B35" s="3">
-        <v>1.0375000000000001</v>
+        <v>7.33</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="12" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B36" s="3">
-        <v>25.35</v>
+        <v>1.0375000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B37" s="3">
-        <v>36.090000000000003</v>
+        <v>25.35</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B38" s="14"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="3">
+        <v>36.090000000000003</v>
+      </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B39" s="14"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B39" s="8"/>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="12"/>
+      <c r="B40" s="8"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A41" s="13"/>
+      <c r="A41" s="12"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
